--- a/biology/Biochimie/Linamarase/Linamarase.xlsx
+++ b/biology/Biochimie/Linamarase/Linamarase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La linamarase, ou bêta-D-glucosidase ( EC 3.2.1.21), est une enzyme présente chez de nombreuses espèces de plantes dont le manioc (Manihot esculenta) et le haricot de Lima (Phaseolus lunatus).
 Chez le manioc, cet enzyme se trouve dans les parois cellulaires. Quand la plante est mastiquée ou pilée, l'enzyme entre en contact avec des substances cyanogènes, telles que la linamarine et lotaustraline, présentes dans les vacuoles, dont la décomposition libère du cyanure d'hydrogène, composé qui peut être létal pour les consommateurs ou les animaux herbivores ou phytophages.  Chez l'homme, une toxicité chronique est plus vraisemblable qu'une intoxication mortelle.
